--- a/Hardware/Information/SAFETY Instructions.xlsx
+++ b/Hardware/Information/SAFETY Instructions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="160">
   <si>
     <t xml:space="preserve">H I G H  N I B B L E</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t xml:space="preserve">_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFC</t>
   </si>
   <si>
     <t xml:space="preserve">SUB X (Imm)</t>
@@ -1278,7 +1281,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.86328125" defaultRowHeight="15.75" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1287,7 +1290,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="3" style="1" width="20.13"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1023" min="19" style="1" width="13.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1024" min="1024" style="1" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1024" min="1024" style="1" width="8.39"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,23 +1862,25 @@
       <c r="B14" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="47" t="s">
+        <v>124</v>
+      </c>
       <c r="D14" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="20"/>
       <c r="G14" s="38"/>
       <c r="H14" s="20"/>
       <c r="I14" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L14" s="32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" s="33" t="str">
         <f aca="false">_xlfn.CONCAT("NAND", RIGHT(L14, 4))</f>
@@ -1884,36 +1889,36 @@
       <c r="N14" s="20"/>
       <c r="O14" s="38"/>
       <c r="P14" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
       <c r="B15" s="46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="19"/>
       <c r="I15" s="30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M15" s="24" t="str">
         <f aca="false">_xlfn.CONCAT("NAND", RIGHT(L15, 4))</f>
@@ -1922,41 +1927,41 @@
       <c r="N15" s="19"/>
       <c r="O15" s="20"/>
       <c r="P15" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R15" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" s="35" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12"/>
       <c r="B16" s="48" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="43" t="s">
         <v>109</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="20"/>
       <c r="I16" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J16" s="20"/>
       <c r="K16" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L16" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M16" s="33" t="str">
         <f aca="false">_xlfn.CONCAT("NAND", RIGHT(L16, 4))</f>
@@ -1965,7 +1970,7 @@
       <c r="N16" s="20"/>
       <c r="O16" s="38"/>
       <c r="P16" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="34" t="s">
@@ -1975,25 +1980,25 @@
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12"/>
       <c r="B17" s="46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="38"/>
       <c r="G17" s="20"/>
       <c r="H17" s="19"/>
       <c r="I17" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M17" s="24" t="str">
         <f aca="false">_xlfn.CONCAT("NAND", RIGHT(L17, 4))</f>
@@ -2002,21 +2007,21 @@
       <c r="N17" s="19"/>
       <c r="O17" s="20"/>
       <c r="P17" s="21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="35"/>
       <c r="R17" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" s="56" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12"/>
       <c r="B18" s="49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="51" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E18" s="50"/>
       <c r="F18" s="52"/>
@@ -2025,10 +2030,10 @@
       <c r="I18" s="50"/>
       <c r="J18" s="52"/>
       <c r="K18" s="53" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L18" s="54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M18" s="33" t="str">
         <f aca="false">_xlfn.CONCAT("NAND", RIGHT(L18, 4))</f>
@@ -2037,7 +2042,7 @@
       <c r="N18" s="52"/>
       <c r="O18" s="50"/>
       <c r="P18" s="55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R18" s="52"/>
     </row>
@@ -2045,7 +2050,7 @@
       <c r="A19" s="57"/>
       <c r="B19" s="58"/>
       <c r="C19" s="59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
@@ -2130,8 +2135,8 @@
     <mergeCell ref="C19:R22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
